--- a/exported_files/details.xlsx
+++ b/exported_files/details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12839</t>
+          <t>19388</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Водяной насос (Помпа) Metelli</t>
+          <t>Болт крепления поперечных тяг Nissan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>241019</t>
+          <t>551668H50A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Metelli</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Гайка M10x1.5 Stellox</t>
+          <t>Датчик ABS Bremi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8902094SX</t>
+          <t>50678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>Bremi</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Герметик черный 85г LAVR</t>
+          <t>Датчик кислородный верхний Startvolt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LN1738</t>
+          <t>VSOS2502</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAVR</t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Гофра воздушного фильтра ACQ</t>
+          <t>Датчик скорости вращения вала КПП Startvolt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASF4286</t>
+          <t>VSSP1001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ACQ</t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Датчик давления в системе ГУР Motorherz</t>
+          <t>Фильтр воздушный Filtron</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HEZ1007HSP</t>
+          <t>AP1335</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Motorherz</t>
+          <t>Filtron</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Диск тормозной передний Stellox</t>
+          <t>Подушка ДВС задняя Tenacity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>60202550VSX</t>
+          <t>AWSMA1105</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>Tenacity</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Заглушка бампера L Sat</t>
+          <t>Ремень приводной (генератор) Dayco</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>STFDA5000CA2</t>
+          <t>6PK962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>Dayco</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Заглушка бампера R Sat</t>
+          <t>Рулевой наконечник L RTS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STFDA5000CA1</t>
+          <t>9102411210</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Катушка зажигания Stellox</t>
+          <t>Рулевой наконечник R RTS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6100135SX</t>
+          <t>9102411110</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние Stellox</t>
+          <t>Свеча зажигания "Iridium" NGK (94124)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000424BSX</t>
+          <t>ILKAR7L11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>NGK</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние Akebono</t>
+          <t>Свеча накаливания Startvolt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AN717K</t>
+          <t>GLSP045</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Akebono</t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Корпус маслянного фильтра (пластик) BSG</t>
+          <t xml:space="preserve">Колодки тормозные передние Sangsin Brake	</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BSG30141002</t>
+          <t>SP2018</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BSG</t>
+          <t xml:space="preserve">Sangsin Brake	</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Корпус топливного фильтра нижний Ford</t>
+          <t>Стойка стабилизатора перед/зад Ossca</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1781617</t>
+          <t>22366</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Ossca</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Крышка бачка ГУР Junsite</t>
+          <t>Кольцо уплотнительное катушки зажигания к-кт 4шт Rosteco</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LQZS070B</t>
+          <t>21369</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Junsite</t>
+          <t>Rosteco</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Крышка расширительного бачка Vernet</t>
+          <t>Лампа галогеновая H4B 12V 60/55W Nord Yada</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RC0039</t>
+          <t>901647</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vernet</t>
+          <t>Nord Yada</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Патрубок системы охлаждения нижний BSG</t>
+          <t>Патрубок радиатора (левый на термостат) Rosteco</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSG30720096</t>
+          <t>20773</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BSG</t>
+          <t>Rosteco</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Подушка ДВС правая (Гидро) Febi</t>
+          <t>Патрубок радиатора верхний Rosteco</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22285</t>
+          <t>20936</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Febi</t>
+          <t>Rosteco</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Подшипник опоры амортизатора переднего SKF</t>
+          <t>Рулевой наконечник R (CEMZ45) CTR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VKD35035</t>
+          <t>CE0466</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SKF</t>
+          <t>CTR</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Подшипник ступицы передний (стопор+гайка) Stellox</t>
+          <t xml:space="preserve">С/б заднего верхнего рычага (серп) OUT Masuma </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4329050SX</t>
+          <t>RU688</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t xml:space="preserve">Masuma </t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Полный комплект болтов задней подвески Fenox</t>
+          <t>С/блок переднего рычага передний Stellox</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BN00002</t>
+          <t>7532801SX</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fenox</t>
+          <t>Stellox</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Привод левый Stellox</t>
+          <t>Сайлентблок задней тяги LYNXauto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1581981SX</t>
+          <t>C9495</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>LYNXauto</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Пружина натяжителя ремня ГРМ Mazda</t>
+          <t>Фильтр воздушный Ford (бочка)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FS0112711</t>
+          <t>1848220</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Пружина тормозного суппорта заднего BSG</t>
+          <t>Фильтр салона угольный SibТэк</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BSG30251021</t>
+          <t>AC0111C</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BSG</t>
+          <t>SibТэк</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Пыльник рейки рулевой Stellox</t>
+          <t>Шаровая опора левая (металл, с болтами) RTS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1300390SX</t>
+          <t>9390649256</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Рулевая рейка с тягами гидравлическая Krauf</t>
+          <t>Стойка стабилизатора заднего("Г"-образная) Lemforder</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HNQ2191GQ</t>
+          <t>3201001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Krauf</t>
+          <t xml:space="preserve">Lemforder	</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Рычаг задней подвески (серп) Patron</t>
+          <t>Ступица передняя с подшипником Pilenga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PS5441</t>
+          <t>HBP2339</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Patron</t>
+          <t>Pilenga</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сальник привода левый Corteco </t>
+          <t>Прокладка выхлопной системы Bosal</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19033801B</t>
+          <t>256650</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corteco </t>
+          <t>Bosal</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Трубки ГУР к/кт ZZVF</t>
+          <t>Уплотнение клапана VCT Stellox</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZV14817</t>
+          <t>1125755SX</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ZZVF</t>
+          <t>Stellox</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Тяга задняя поперечная Febest</t>
+          <t xml:space="preserve">Фильтр топливный Masuma </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0525323RF</t>
+          <t>MFFN229</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Febest</t>
+          <t xml:space="preserve">Masuma </t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Фильтр масляный Mando</t>
+          <t>Прокладка ГБЦ Victor Reinz</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MMF040055</t>
+          <t>613692500</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mando</t>
+          <t>Victor Reinz</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1078,20 +1078,120 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Щуп уровня масла Ford</t>
+          <t>Пружина передняя Sufix</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2601136</t>
+          <t>SZ1008</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Sufix</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4444.44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Шаровая опора правая (металл, с болтами) RTS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9390649156</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RTS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4444.44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Катушка зажигания Startvolt</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SC0902</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Startvolt</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4444.44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Колодки тормозные передние Pilenga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FDP7000T</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pilenga</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4444.44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Крестовина 19,00/55,50 LYNXauto</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CP3206</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LYNXauto</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4444.44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Подвесной подшипник Ford</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1810012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Ford</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>4444.44</v>
       </c>
     </row>

--- a/exported_files/details.xlsx
+++ b/exported_files/details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,121 +458,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Бачок расширительный Ossca</t>
+          <t>Лампа галогеновая H4B 12V 60/55W Nord Yada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19388</t>
+          <t>901647</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ossca</t>
+          <t>Nord Yada</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4444.44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Болт крепления поперечных тяг Nissan</t>
+          <t>Бачок расширительный Ossca</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>551668H50A</t>
+          <t>19388</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Ossca</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4444.44</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Датчик ABS Bremi</t>
+          <t>Шаровая опора левая (металл, с болтами) RTS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50678</t>
+          <t>9390649256</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bremi</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4444.44</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Датчик кислородный верхний Startvolt</t>
+          <t>Фильтр воздушный Filtron</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VSOS2502</t>
+          <t>AP1335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Startvolt</t>
+          <t>Filtron</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4444.44</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Датчик скорости вращения вала КПП Startvolt</t>
+          <t xml:space="preserve">Колодки тормозные передние Sangsin Brake	</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VSSP1001</t>
+          <t>SP2018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Startvolt</t>
+          <t xml:space="preserve">Sangsin Brake	</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4444.44</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Фильтр воздушный Filtron</t>
+          <t>Патрубок радиатора (левый на термостат) Rosteco</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AP1335</t>
+          <t>20773</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Filtron</t>
+          <t>Rosteco</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4444.44</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8">
@@ -592,607 +592,467 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4444.44</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ремень приводной (генератор) Dayco</t>
+          <t>Шаровая опора правая (металл, с болтами) RTS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6PK962</t>
+          <t>9390649156</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dayco</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4444.44</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Рулевой наконечник L RTS</t>
+          <t>С/блок переднего рычага передний Stellox</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9102411210</t>
+          <t>7532801SX</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RTS</t>
+          <t>Stellox</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4444.44</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Рулевой наконечник R RTS</t>
+          <t>Уплотнение клапана VCT Stellox</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9102411110</t>
+          <t>1125755SX</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RTS</t>
+          <t>Stellox</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4444.44</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Свеча зажигания "Iridium" NGK (94124)</t>
+          <t xml:space="preserve">Фильтр топливный Masuma </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ILKAR7L11</t>
+          <t>MFFN229</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NGK</t>
+          <t xml:space="preserve">Masuma </t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4444.44</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Свеча накаливания Startvolt</t>
+          <t>Патрубок радиатора верхний Rosteco</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GLSP045</t>
+          <t>20936</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Startvolt</t>
+          <t>Rosteco</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4444.44</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колодки тормозные передние Sangsin Brake	</t>
+          <t>Болт крепления поперечных тяг Nissan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SP2018</t>
+          <t>551668H50A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sangsin Brake	</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4444.44</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Стойка стабилизатора перед/зад Ossca</t>
+          <t>Колодки тормозные передние Pilenga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22366</t>
+          <t>FDP7000T</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ossca</t>
+          <t>Pilenga</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4444.44</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кольцо уплотнительное катушки зажигания к-кт 4шт Rosteco</t>
+          <t>Датчик ABS Bremi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21369</t>
+          <t>50678</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rosteco</t>
+          <t>Bremi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4444.44</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Лампа галогеновая H4B 12V 60/55W Nord Yada</t>
+          <t>Датчик кислородный верхний Startvolt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>901647</t>
+          <t>VSOS2502</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nord Yada</t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4444.44</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Патрубок радиатора (левый на термостат) Rosteco</t>
+          <t>Рулевой наконечник L RTS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20773</t>
+          <t>9102411210</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rosteco</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4444.44</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Патрубок радиатора верхний Rosteco</t>
+          <t>Ремень приводной (генератор) Dayco</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20936</t>
+          <t>6PK962</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rosteco</t>
+          <t>Dayco</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4444.44</v>
+        <v>920</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Рулевой наконечник R (CEMZ45) CTR</t>
+          <t>Кольцо уплотнительное катушки зажигания к-кт 4шт Rosteco</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CE0466</t>
+          <t>21369</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CTR</t>
+          <t>Rosteco</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4444.44</v>
+        <v>885</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">С/б заднего верхнего рычага (серп) OUT Masuma </t>
+          <t>Крестовина 19,00/55,50 LYNXauto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RU688</t>
+          <t>CP3206</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Masuma </t>
+          <t>LYNXauto</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4444.44</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>С/блок переднего рычага передний Stellox</t>
+          <t>Подвесной подшипник Ford</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7532801SX</t>
+          <t>1810012</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4444.44</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Сайлентблок задней тяги LYNXauto</t>
+          <t>Фильтр воздушный Ford (бочка)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C9495</t>
+          <t>1848220</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LYNXauto</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4444.44</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Фильтр воздушный Ford (бочка)</t>
+          <t>Катушка зажигания Startvolt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1848220</t>
+          <t>SC0902</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4444.44</v>
+        <v>975</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Фильтр салона угольный SibТэк</t>
+          <t>Стойка стабилизатора перед/зад Ossca</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AC0111C</t>
+          <t>22366</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SibТэк</t>
+          <t>Ossca</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4444.44</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Шаровая опора левая (металл, с болтами) RTS</t>
+          <t>Фильтр салона угольный SibТэк</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9390649256</t>
+          <t>AC0111C</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RTS</t>
+          <t>SibТэк</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4444.44</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Стойка стабилизатора заднего("Г"-образная) Lemforder</t>
+          <t>Сайлентблок задней тяги LYNXauto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3201001</t>
+          <t>C9495</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lemforder	</t>
+          <t>LYNXauto</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4444.44</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ступица передняя с подшипником Pilenga</t>
+          <t>Датчик скорости вращения вала КПП Startvolt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HBP2339</t>
+          <t>VSSP1001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pilenga</t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4444.44</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Прокладка выхлопной системы Bosal</t>
+          <t>Рулевой наконечник R RTS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>256650</t>
+          <t>9102411110</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bosal</t>
+          <t>RTS</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4444.44</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Уплотнение клапана VCT Stellox</t>
+          <t>Свеча зажигания "Iridium" NGK (94124)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1125755SX</t>
+          <t>ILKAR7L11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Stellox</t>
+          <t>NGK</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4444.44</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фильтр топливный Masuma </t>
+          <t>Свеча накаливания Startvolt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MFFN229</t>
+          <t>GLSP045</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Masuma </t>
+          <t>Startvolt</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Прокладка ГБЦ Victor Reinz</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>613692500</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Victor Reinz</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Пружина передняя Sufix</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SZ1008</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sufix</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Шаровая опора правая (металл, с болтами) RTS</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>9390649156</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>RTS</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Катушка зажигания Startvolt</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SC0902</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Startvolt</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Колодки тормозные передние Pilenga</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>FDP7000T</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Pilenga</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Крестовина 19,00/55,50 LYNXauto</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CP3206</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>LYNXauto</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>4444.44</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Подвесной подшипник Ford</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1810012</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>4444.44</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
